--- a/www.eia.gov/electricity/monthly/xls/table_1_15_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_15_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
   <si>
     <t>Table 1.15.A. Utility Scale Facility Net Generation from Biomass</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,37 +1392,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="C7" s="10">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="D7" s="11">
-        <v>-0.121</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E7" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F7" s="10">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="H7" s="10">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="I7" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="10">
         <v>11</v>
       </c>
       <c r="K7" s="10">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="L7" s="10">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C8" s="13">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="14">
-        <v>-8.5000000000000006E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H8" s="13">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="13">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C9" s="13">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.23499999999999999</v>
+        <v>-0.189</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H9" s="13">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I9" s="13">
         <v>7</v>
@@ -1495,10 +1495,10 @@
         <v>8</v>
       </c>
       <c r="K9" s="13">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="L9" s="13">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,31 +1506,31 @@
         <v>19</v>
       </c>
       <c r="B10" s="13">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13">
+        <v>100</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>92</v>
+      </c>
+      <c r="H10" s="13">
         <v>99</v>
       </c>
-      <c r="C10" s="13">
-        <v>105</v>
-      </c>
-      <c r="D10" s="14">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>99</v>
-      </c>
-      <c r="H10" s="13">
-        <v>105</v>
-      </c>
       <c r="I10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="13">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="K10" s="13">
         <v>0</v>
@@ -1544,25 +1544,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C11" s="13">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D11" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E11" s="13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G11" s="13">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H11" s="13">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>20</v>
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="14">
-        <v>3.0000000000000001E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -1620,31 +1620,31 @@
         <v>23</v>
       </c>
       <c r="B13" s="13">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" s="13">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.28499999999999998</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F13" s="13">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="13">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="C14" s="10">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D14" s="11">
-        <v>-7.0000000000000007E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="H14" s="10">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I14" s="10">
         <v>34</v>
       </c>
       <c r="J14" s="10">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K14" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L14" s="10">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,13 +1696,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="13">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.10199999999999999</v>
+        <v>-0.05</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="13">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13">
+        <v>13</v>
+      </c>
+      <c r="J15" s="13">
         <v>14</v>
-      </c>
-      <c r="J15" s="13">
-        <v>13</v>
       </c>
       <c r="K15" s="13">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C16" s="13">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D16" s="14">
-        <v>-7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,22 +1749,22 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H16" s="13">
         <v>155</v>
       </c>
       <c r="I16" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="13">
         <v>16</v>
       </c>
       <c r="L16" s="13">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C17" s="13">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.11799999999999999</v>
+        <v>-0.108</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,22 +1787,22 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="H17" s="13">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K17" s="13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L17" s="13">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,37 +1810,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C18" s="10">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="D18" s="11">
-        <v>-8.3000000000000004E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F18" s="10">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G18" s="10">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H18" s="10">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="I18" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="10">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L18" s="10">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,10 +1851,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="14">
-        <v>-4.3999999999999997E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>20</v>
@@ -1863,10 +1863,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>36</v>
       </c>
       <c r="C20" s="13">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="14">
-        <v>-8.3000000000000004E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E20" s="13">
         <v>25</v>
       </c>
       <c r="F20" s="13">
-        <v>26</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G20" s="13">
+        <v>4</v>
       </c>
       <c r="H20" s="13">
         <v>5</v>
@@ -1924,13 +1924,13 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C21" s="13">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D21" s="14">
-        <v>-3.1E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H21" s="13">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I21" s="13">
         <v>13</v>
@@ -1951,7 +1951,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L21" s="13">
         <v>55</v>
@@ -1962,25 +1962,25 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="13">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.126</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.2</v>
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="13">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>20</v>
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="K22" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L22" s="13">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,25 +2000,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C23" s="13">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.16200000000000001</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F23" s="13">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="13">
         <v>41</v>
       </c>
       <c r="H23" s="13">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>20</v>
@@ -2027,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="K23" s="13">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L23" s="13">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,37 +2038,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C24" s="10">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="D24" s="11">
-        <v>4.2999999999999997E-2</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24" s="10">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" s="10">
         <v>86</v>
       </c>
       <c r="H24" s="10">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I24" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J24" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K24" s="10">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L24" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2082,13 +2082,13 @@
         <v>21</v>
       </c>
       <c r="D25" s="14">
-        <v>-4.2000000000000003E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="13">
         <v>10</v>
@@ -2100,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="13">
         <v>5</v>
@@ -2114,13 +2114,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
+        <v>5</v>
+      </c>
+      <c r="C26" s="13">
         <v>6</v>
       </c>
-      <c r="C26" s="13">
-        <v>5</v>
-      </c>
       <c r="D26" s="14">
-        <v>0.114</v>
+        <v>-0.13700000000000001</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2140,11 +2140,11 @@
       <c r="J26" s="13">
         <v>0</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>20</v>
+      <c r="K26" s="13">
+        <v>0.02</v>
       </c>
       <c r="L26" s="13">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2152,37 +2152,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C27" s="13">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D27" s="14">
-        <v>3.1E-2</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="E27" s="13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F27" s="13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G27" s="13">
         <v>66</v>
       </c>
       <c r="H27" s="13">
-        <v>59</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="I27" s="13">
+        <v>2</v>
       </c>
       <c r="J27" s="13">
         <v>2</v>
       </c>
       <c r="K27" s="13">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L27" s="13">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,37 +2190,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C28" s="13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14">
-        <v>7.5999999999999998E-2</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="13">
+        <v>4</v>
+      </c>
+      <c r="H28" s="13">
         <v>3</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="13">
-        <v>4</v>
-      </c>
       <c r="I28" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="13">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2228,20 +2228,20 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" s="14">
-        <v>0.40500000000000003</v>
+        <v>-0.30499999999999999</v>
       </c>
       <c r="E29" s="13">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13">
         <v>7</v>
       </c>
-      <c r="F29" s="13">
-        <v>4</v>
-      </c>
       <c r="G29" s="13">
         <v>0</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="13">
         <v>0</v>
@@ -2265,14 +2265,14 @@
       <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>20</v>
+      <c r="B30" s="13">
+        <v>0.13</v>
       </c>
       <c r="C30" s="13">
-        <v>0.31</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>20</v>
+        <v>0.34</v>
+      </c>
+      <c r="D30" s="14">
+        <v>-0.60799999999999998</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -2292,11 +2292,11 @@
       <c r="J30" s="13">
         <v>0</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>20</v>
+      <c r="K30" s="13">
+        <v>0.13</v>
       </c>
       <c r="L30" s="13">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2342,37 +2342,37 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>1412</v>
+        <v>1490</v>
       </c>
       <c r="C32" s="10">
-        <v>1485</v>
+        <v>1620</v>
       </c>
       <c r="D32" s="11">
-        <v>-4.9000000000000002E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="E32" s="10">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F32" s="10">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="G32" s="10">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="H32" s="10">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="I32" s="10">
         <v>28</v>
       </c>
       <c r="J32" s="10">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K32" s="10">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="L32" s="10">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="14">
-        <v>-0.14199999999999999</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2394,11 +2394,11 @@
       <c r="F33" s="13">
         <v>0</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>20</v>
+      <c r="G33" s="13">
+        <v>5</v>
       </c>
       <c r="H33" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="C35" s="13">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D35" s="14">
-        <v>-9.9000000000000005E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" s="13">
         <v>7</v>
       </c>
       <c r="G35" s="13">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H35" s="13">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>20</v>
@@ -2483,10 +2483,10 @@
         <v>4</v>
       </c>
       <c r="K35" s="13">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L35" s="13">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,13 +2494,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="C36" s="13">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="D36" s="14">
-        <v>-3.3000000000000002E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E36" s="13">
         <v>0</v>
@@ -2509,22 +2509,22 @@
         <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H36" s="13">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="13">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="K36" s="13">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="L36" s="13">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="14">
-        <v>0.13700000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
+        <v>36</v>
+      </c>
+      <c r="H37" s="13">
         <v>34</v>
-      </c>
-      <c r="H37" s="13">
-        <v>35</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>20</v>
@@ -2562,7 +2562,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,13 +2570,13 @@
         <v>49</v>
       </c>
       <c r="B38" s="13">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C38" s="13">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="D38" s="14">
-        <v>-0.154</v>
+        <v>-0.28899999999999998</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
@@ -2585,22 +2585,22 @@
         <v>0</v>
       </c>
       <c r="G38" s="13">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H38" s="13">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="I38" s="13">
         <v>5</v>
       </c>
       <c r="J38" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K38" s="13">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L38" s="13">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,26 +2608,26 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C39" s="13">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D39" s="14">
-        <v>0.19800000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E39" s="13">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F39" s="13">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G39" s="13">
+        <v>29</v>
+      </c>
+      <c r="H39" s="13">
         <v>31</v>
       </c>
-      <c r="H39" s="13">
-        <v>28</v>
-      </c>
       <c r="I39" s="13">
         <v>0</v>
       </c>
@@ -2635,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L39" s="13">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,37 +2646,37 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C40" s="13">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D40" s="14">
-        <v>-6.7000000000000004E-2</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="E40" s="13">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F40" s="13">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G40" s="13">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H40" s="13">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I40" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J40" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K40" s="13">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L40" s="13">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,25 +2722,25 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="C42" s="10">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D42" s="11">
-        <v>-5.2999999999999999E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="E42" s="10">
         <v>7</v>
       </c>
       <c r="F42" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G42" s="10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H42" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="10">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="L42" s="10">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,13 +2760,13 @@
         <v>54</v>
       </c>
       <c r="B43" s="13">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C43" s="13">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.11600000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H43" s="13">
         <v>25</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="L43" s="13">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,19 +2798,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C44" s="13">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D44" s="14">
-        <v>0.22800000000000001</v>
+        <v>-0.127</v>
       </c>
       <c r="E44" s="13">
         <v>7</v>
       </c>
       <c r="F44" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>20</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L44" s="13">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,13 +2836,13 @@
         <v>56</v>
       </c>
       <c r="B45" s="13">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C45" s="13">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="14">
-        <v>-1.7999999999999999E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="H45" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L45" s="13">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="H46" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>78</v>
       </c>
       <c r="L46" s="13">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,37 +2912,37 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="C47" s="10">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="D47" s="11">
-        <v>8.5000000000000006E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="10">
-        <v>18</v>
+        <v>0.02</v>
       </c>
       <c r="G47" s="10">
+        <v>84</v>
+      </c>
+      <c r="H47" s="10">
         <v>71</v>
       </c>
-      <c r="H47" s="10">
-        <v>49</v>
-      </c>
       <c r="I47" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J47" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="10">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L47" s="10">
-        <v>395</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2950,13 +2950,13 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C48" s="13">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D48" s="14">
-        <v>3.0000000000000001E-3</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E48" s="13">
         <v>0</v>
@@ -2965,22 +2965,22 @@
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H48" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="13">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="K48" s="13">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L48" s="13">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C49" s="13">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D49" s="14">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L49" s="13">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C50" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="14">
-        <v>-0.191</v>
+        <v>-0.14699999999999999</v>
       </c>
       <c r="E50" s="13">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L50" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,37 +3064,37 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C51" s="13">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D51" s="14">
-        <v>0.435</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <v>18</v>
+        <v>0.02</v>
       </c>
       <c r="G51" s="13">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H51" s="13">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J51" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="13">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L51" s="13">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,13 +3102,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C52" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="11">
-        <v>-0.105</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>20</v>
@@ -3117,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>20</v>
@@ -3129,10 +3129,10 @@
         <v>2</v>
       </c>
       <c r="K52" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L52" s="10">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,13 +3140,13 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C53" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D53" s="14">
-        <v>1.7000000000000001E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E53" s="13">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I53" s="13">
         <v>0</v>
@@ -3178,13 +3178,13 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="13">
         <v>7</v>
       </c>
       <c r="D54" s="14">
-        <v>0.03</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="E54" s="13">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H54" s="13">
         <v>7</v>
@@ -3216,13 +3216,13 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C55" s="13">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D55" s="14">
-        <v>-0.16300000000000001</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>20</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="K55" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L55" s="13">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="14">
-        <v>-7.9000000000000001E-2</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="E59" s="13">
         <v>0</v>
@@ -3444,34 +3444,34 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="C61" s="10">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D61" s="11">
-        <v>-4.1000000000000002E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="E61" s="10">
+        <v>68</v>
+      </c>
+      <c r="F61" s="10">
+        <v>60</v>
+      </c>
+      <c r="G61" s="10">
+        <v>382</v>
+      </c>
+      <c r="H61" s="10">
+        <v>434</v>
+      </c>
+      <c r="I61" s="10">
         <v>67</v>
       </c>
-      <c r="F61" s="10">
-        <v>65</v>
-      </c>
-      <c r="G61" s="10">
-        <v>411</v>
-      </c>
-      <c r="H61" s="10">
-        <v>427</v>
-      </c>
-      <c r="I61" s="10">
-        <v>70</v>
-      </c>
       <c r="J61" s="10">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K61" s="10">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L61" s="10">
         <v>207</v>
@@ -3482,37 +3482,37 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="C62" s="13">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D62" s="14">
-        <v>-1E-3</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E62" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F62" s="13">
         <v>13</v>
       </c>
       <c r="G62" s="13">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="H62" s="13">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="I62" s="13">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J62" s="13">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K62" s="13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L62" s="13">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,25 +3520,25 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C63" s="13">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D63" s="14">
-        <v>-0.22600000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="E63" s="13">
+        <v>5</v>
+      </c>
+      <c r="F63" s="13">
         <v>6</v>
       </c>
-      <c r="F63" s="13">
-        <v>5</v>
-      </c>
       <c r="G63" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>20</v>
@@ -3547,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="K63" s="13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L63" s="13">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,25 +3558,25 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C64" s="13">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D64" s="14">
-        <v>-5.3999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E64" s="13">
+        <v>39</v>
+      </c>
+      <c r="F64" s="13">
         <v>42</v>
-      </c>
-      <c r="F64" s="13">
-        <v>46</v>
       </c>
       <c r="G64" s="13">
         <v>10</v>
       </c>
       <c r="H64" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>20</v>
@@ -3585,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="K64" s="13">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L64" s="13">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3596,19 +3596,19 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C65" s="10">
         <v>30</v>
       </c>
       <c r="D65" s="11">
-        <v>9.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E65" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="I65" s="10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J65" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K65" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L65" s="10">
         <v>8</v>
@@ -3664,7 +3664,7 @@
         <v>20</v>
       </c>
       <c r="L66" s="13">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3672,37 +3672,37 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C67" s="13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" s="14">
-        <v>0.12</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="13">
+        <v>3</v>
+      </c>
+      <c r="G67" s="13">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
+        <v>16</v>
+      </c>
+      <c r="J67" s="13">
+        <v>15</v>
+      </c>
+      <c r="K67" s="13">
         <v>5</v>
       </c>
-      <c r="G67" s="13">
-        <v>0</v>
-      </c>
-      <c r="H67" s="13">
-        <v>0</v>
-      </c>
-      <c r="I67" s="13">
-        <v>20</v>
-      </c>
-      <c r="J67" s="13">
-        <v>13</v>
-      </c>
-      <c r="K67" s="13">
+      <c r="L67" s="13">
         <v>7</v>
-      </c>
-      <c r="L67" s="13">
-        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>4859</v>
+        <v>5033</v>
       </c>
       <c r="C68" s="10">
-        <v>5095</v>
+        <v>5320</v>
       </c>
       <c r="D68" s="11">
-        <v>-4.5999999999999999E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="F68" s="10">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="G68" s="10">
-        <v>2096</v>
+        <v>2152</v>
       </c>
       <c r="H68" s="10">
-        <v>2214</v>
+        <v>2358</v>
       </c>
       <c r="I68" s="10">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J68" s="10">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K68" s="10">
-        <v>2268</v>
+        <v>2373</v>
       </c>
       <c r="L68" s="10">
-        <v>2317</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
